--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>5.402760652684667</v>
+        <v>3.640931055655556</v>
       </c>
       <c r="R2">
-        <v>48.624845874162</v>
+        <v>32.7683795009</v>
       </c>
       <c r="S2">
-        <v>0.08090147188337435</v>
+        <v>0.1348204160409044</v>
       </c>
       <c r="T2">
-        <v>0.1125859640540371</v>
+        <v>0.1519607484453406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.716164258402</v>
+        <v>1.20580343405</v>
       </c>
       <c r="R3">
-        <v>6.445478325618001</v>
+        <v>10.85223090645</v>
       </c>
       <c r="S3">
-        <v>0.01072391437258967</v>
+        <v>0.04464982120154477</v>
       </c>
       <c r="T3">
-        <v>0.01492385997391318</v>
+        <v>0.05032635595545716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>1.631684805466667</v>
+        <v>3.325534293511112</v>
       </c>
       <c r="R4">
-        <v>14.6851632492</v>
+        <v>29.9298086416</v>
       </c>
       <c r="S4">
-        <v>0.02443300951086852</v>
+        <v>0.1231415564194848</v>
       </c>
       <c r="T4">
-        <v>0.03400202575409381</v>
+        <v>0.1387971023064611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H5">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I5">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J5">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>4.861685847507334</v>
+        <v>3.304743855108334</v>
       </c>
       <c r="R5">
-        <v>29.170115085044</v>
+        <v>19.82846313065</v>
       </c>
       <c r="S5">
-        <v>0.07279936428471462</v>
+        <v>0.1223717051061013</v>
       </c>
       <c r="T5">
-        <v>0.06754048201851476</v>
+        <v>0.09195291753050096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H6">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I6">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J6">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>1.674596922238889</v>
+        <v>4.268608076355555</v>
       </c>
       <c r="R6">
-        <v>15.07137230015</v>
+        <v>38.4174726872</v>
       </c>
       <c r="S6">
-        <v>0.02507557978774705</v>
+        <v>0.1580627339471007</v>
       </c>
       <c r="T6">
-        <v>0.03489625415823371</v>
+        <v>0.1781579678898983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N7">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O7">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P7">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q7">
-        <v>3.40791069169</v>
+        <v>1.364021005886667</v>
       </c>
       <c r="R7">
-        <v>30.67119622521</v>
+        <v>12.27618905298</v>
       </c>
       <c r="S7">
-        <v>0.05103039144771475</v>
+        <v>0.05050847618125584</v>
       </c>
       <c r="T7">
-        <v>0.07101608516441027</v>
+        <v>0.05692984837703376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J8">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P8">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q8">
         <v>0.45173643441</v>
@@ -948,10 +948,10 @@
         <v>4.06562790969</v>
       </c>
       <c r="S8">
-        <v>0.006764346006880091</v>
+        <v>0.01672739557465341</v>
       </c>
       <c r="T8">
-        <v>0.009413554520708021</v>
+        <v>0.01885402541922433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J9">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N9">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O9">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P9">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q9">
-        <v>1.029221254</v>
+        <v>1.245862270613334</v>
       </c>
       <c r="R9">
-        <v>9.262991286</v>
+        <v>11.21276043552</v>
       </c>
       <c r="S9">
-        <v>0.0154116607591856</v>
+        <v>0.04613316404133683</v>
       </c>
       <c r="T9">
-        <v>0.02144752924579688</v>
+        <v>0.05199828291396359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J10">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N10">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O10">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P10">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q10">
-        <v>3.06661579967</v>
+        <v>1.238073440155</v>
       </c>
       <c r="R10">
-        <v>18.39969479802</v>
+        <v>7.428440640930001</v>
       </c>
       <c r="S10">
-        <v>0.0459198080097875</v>
+        <v>0.04584475062542404</v>
       </c>
       <c r="T10">
-        <v>0.04260265179032477</v>
+        <v>0.0344488014595444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J11">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N11">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O11">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P11">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q11">
-        <v>1.056289020083333</v>
+        <v>1.599170924426667</v>
       </c>
       <c r="R11">
-        <v>9.50660118075</v>
+        <v>14.39253831984</v>
       </c>
       <c r="S11">
-        <v>0.01581697616320011</v>
+        <v>0.05921586705598894</v>
       </c>
       <c r="T11">
-        <v>0.02201158357564526</v>
+        <v>0.0667442494387329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H12">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I12">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J12">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N12">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O12">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P12">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q12">
-        <v>1.113700202698333</v>
+        <v>0.2180010790766667</v>
       </c>
       <c r="R12">
-        <v>10.023301824285</v>
+        <v>1.96200971169</v>
       </c>
       <c r="S12">
-        <v>0.0166766568847236</v>
+        <v>0.008072384708529012</v>
       </c>
       <c r="T12">
-        <v>0.02320795220229917</v>
+        <v>0.009098663674755434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H13">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I13">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J13">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.803997</v>
       </c>
       <c r="O13">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P13">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q13">
-        <v>0.147626802485</v>
+        <v>0.072197590605</v>
       </c>
       <c r="R13">
-        <v>1.328641222365</v>
+        <v>0.649778315445</v>
       </c>
       <c r="S13">
-        <v>0.002210578328051238</v>
+        <v>0.0026734121173202</v>
       </c>
       <c r="T13">
-        <v>0.003076335774698758</v>
+        <v>0.003013295153514164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H14">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I14">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J14">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N14">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O14">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P14">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q14">
-        <v>0.3363479923333333</v>
+        <v>0.1991166691733333</v>
       </c>
       <c r="R14">
-        <v>3.027131931</v>
+        <v>1.79205002256</v>
       </c>
       <c r="S14">
-        <v>0.005036508073194623</v>
+        <v>0.0073731119233716</v>
       </c>
       <c r="T14">
-        <v>0.007009021018851046</v>
+        <v>0.008310489161425507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H15">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I15">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J15">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N15">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O15">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P15">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q15">
-        <v>1.002165533861667</v>
+        <v>0.1978718397775</v>
       </c>
       <c r="R15">
-        <v>6.012993203170001</v>
+        <v>1.187231038665</v>
       </c>
       <c r="S15">
-        <v>0.01500652573234185</v>
+        <v>0.007327017005758285</v>
       </c>
       <c r="T15">
-        <v>0.01392248395771258</v>
+        <v>0.005505689324921223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H16">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I16">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J16">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N16">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O16">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P16">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q16">
-        <v>0.3451936984861111</v>
+        <v>0.2555832979466666</v>
       </c>
       <c r="R16">
-        <v>3.106743286375</v>
+        <v>2.30024968152</v>
       </c>
       <c r="S16">
-        <v>0.005168964551208682</v>
+        <v>0.009464020613285639</v>
       </c>
       <c r="T16">
-        <v>0.007193353144401407</v>
+        <v>0.01066722457866234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H17">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I17">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J17">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N17">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O17">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P17">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q17">
-        <v>14.356268835488</v>
+        <v>0.8628030272343334</v>
       </c>
       <c r="R17">
-        <v>86.137613012928</v>
+        <v>5.176818163406001</v>
       </c>
       <c r="S17">
-        <v>0.2149721881474182</v>
+        <v>0.03194882334077605</v>
       </c>
       <c r="T17">
-        <v>0.1994430219372126</v>
+        <v>0.02400708166404759</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H18">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I18">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J18">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.803997</v>
       </c>
       <c r="O18">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P18">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q18">
-        <v>1.902998723232</v>
+        <v>0.2857430797905</v>
       </c>
       <c r="R18">
-        <v>11.417992339392</v>
+        <v>1.714458478743</v>
       </c>
       <c r="S18">
-        <v>0.02849569092518461</v>
+        <v>0.01058081032276736</v>
       </c>
       <c r="T18">
-        <v>0.02643721850386664</v>
+        <v>0.007950664560665588</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H19">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I19">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J19">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N19">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O19">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P19">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q19">
-        <v>4.335728940799999</v>
+        <v>0.7880624520906667</v>
       </c>
       <c r="R19">
-        <v>26.0143736448</v>
+        <v>4.728374712544</v>
       </c>
       <c r="S19">
-        <v>0.06492363359160938</v>
+        <v>0.02918124678357828</v>
       </c>
       <c r="T19">
-        <v>0.06023367855275941</v>
+        <v>0.02192746089956856</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H20">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I20">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J20">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N20">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O20">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P20">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q20">
-        <v>12.918519532384</v>
+        <v>0.78313567569275</v>
       </c>
       <c r="R20">
-        <v>51.674078129536</v>
+        <v>3.132542702771</v>
       </c>
       <c r="S20">
-        <v>0.1934431880125314</v>
+        <v>0.02899881266616321</v>
       </c>
       <c r="T20">
-        <v>0.119646156162088</v>
+        <v>0.01452691713476393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H21">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I21">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J21">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N21">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O21">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P21">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q21">
-        <v>4.449755440266667</v>
+        <v>1.011545649741333</v>
       </c>
       <c r="R21">
-        <v>26.6985326416</v>
+        <v>6.069273898447999</v>
       </c>
       <c r="S21">
-        <v>0.0666310776620733</v>
+        <v>0.03745662943291811</v>
       </c>
       <c r="T21">
-        <v>0.06181778023650174</v>
+        <v>0.02814577401066163</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H22">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I22">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J22">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N22">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O22">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P22">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q22">
-        <v>0.9737713736579999</v>
+        <v>0.1589133821075555</v>
       </c>
       <c r="R22">
-        <v>8.763942362921998</v>
+        <v>1.430220438968</v>
       </c>
       <c r="S22">
-        <v>0.01458134877170275</v>
+        <v>0.005884420210849142</v>
       </c>
       <c r="T22">
-        <v>0.0202920314112069</v>
+        <v>0.006632533303681729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H23">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I23">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J23">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.803997</v>
       </c>
       <c r="O23">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P23">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q23">
-        <v>0.129078502362</v>
+        <v>0.05262892895599999</v>
       </c>
       <c r="R23">
-        <v>1.161706521258</v>
+        <v>0.473660360604</v>
       </c>
       <c r="S23">
-        <v>0.00193283424917193</v>
+        <v>0.001948802102861454</v>
       </c>
       <c r="T23">
-        <v>0.002689815181773011</v>
+        <v>0.002196562173735105</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H24">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I24">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J24">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N24">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O24">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P24">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q24">
-        <v>0.2940881627999999</v>
+        <v>0.1451474619591111</v>
       </c>
       <c r="R24">
-        <v>2.6467934652</v>
+        <v>1.306327157632</v>
       </c>
       <c r="S24">
-        <v>0.00440370520988653</v>
+        <v>0.005374680517010037</v>
       </c>
       <c r="T24">
-        <v>0.006128385367074506</v>
+        <v>0.006057988085214316</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H25">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I25">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J25">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N25">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O25">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P25">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q25">
-        <v>0.876250274694</v>
+        <v>0.1442400350313333</v>
       </c>
       <c r="R25">
-        <v>5.257501648164</v>
+        <v>0.865440210188</v>
       </c>
       <c r="S25">
-        <v>0.01312105819933556</v>
+        <v>0.005341079310598922</v>
       </c>
       <c r="T25">
-        <v>0.01217321887468984</v>
+        <v>0.004013410003117467</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H26">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I26">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J26">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N26">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O26">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P26">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q26">
-        <v>0.30182246635</v>
+        <v>0.1863091983715555</v>
       </c>
       <c r="R26">
-        <v>2.71640219715</v>
+        <v>1.676782785344</v>
       </c>
       <c r="S26">
-        <v>0.004519519435504112</v>
+        <v>0.006898862750417534</v>
       </c>
       <c r="T26">
-        <v>0.006289557419186536</v>
+        <v>0.007775946535108299</v>
       </c>
     </row>
   </sheetData>
